--- a/Сoaxial Сylinders v_1.11/Documents/Different/Проверка скорости на границе.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Проверка скорости на границе.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F843C7-F450-4584-8D11-DCE5F543E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="17025" yWindow="4860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="1805 переменная скорость" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Имя</t>
   </si>
@@ -47,12 +65,141 @@
   </si>
   <si>
     <t>ux_таб</t>
+  </si>
+  <si>
+    <t>vectorElement[i].U_x</t>
+  </si>
+  <si>
+    <t>-0.080105931105040121</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>vectorElement[i].U_y</t>
+  </si>
+  <si>
+    <t>-1.1448464487330681</t>
+  </si>
+  <si>
+    <t>_time</t>
+  </si>
+  <si>
+    <t>Sk_x</t>
+  </si>
+  <si>
+    <t>Sk_y</t>
+  </si>
+  <si>
+    <t>0.00020000000000000001</t>
+  </si>
+  <si>
+    <t>0.0093736884624294192</t>
+  </si>
+  <si>
+    <t>0.21043031504482818</t>
+  </si>
+  <si>
+    <t>omega_1</t>
+  </si>
+  <si>
+    <t>0.012402475980092743</t>
+  </si>
+  <si>
+    <t>1.0000000000000000</t>
+  </si>
+  <si>
+    <t>epselon</t>
+  </si>
+  <si>
+    <t>0.0000000000000000</t>
+  </si>
+  <si>
+    <t>-0.066178297378100936</t>
+  </si>
+  <si>
+    <t>-1.1812524114518661</t>
+  </si>
+  <si>
+    <t>-0.011315463242125554</t>
+  </si>
+  <si>
+    <t>0.00059270866534946265</t>
+  </si>
+  <si>
+    <t>62.012347258507020</t>
+  </si>
+  <si>
+    <t>0.00030000000000000003</t>
+  </si>
+  <si>
+    <t>-0.060802360113136507</t>
+  </si>
+  <si>
+    <t>-1.1476791879001311</t>
+  </si>
+  <si>
+    <t>0.0093236699706352056</t>
+  </si>
+  <si>
+    <t>0.21043201710351978</t>
+  </si>
+  <si>
+    <t>0.018603707849772839</t>
+  </si>
+  <si>
+    <t>62.012286054854719</t>
+  </si>
+  <si>
+    <t>-0.060333719995125074</t>
+  </si>
+  <si>
+    <t>-1.1966003868428781</t>
+  </si>
+  <si>
+    <t>-0.011471644377006613</t>
+  </si>
+  <si>
+    <t>0.00057104968777421314</t>
+  </si>
+  <si>
+    <t>0.00050000000000000001</t>
+  </si>
+  <si>
+    <t>-0.067756874604358891</t>
+  </si>
+  <si>
+    <t>-1.1878813800594399</t>
+  </si>
+  <si>
+    <t>-0.011536211426854993</t>
+  </si>
+  <si>
+    <t>0.00060241547974665573</t>
+  </si>
+  <si>
+    <t>-0.071947650101463950</t>
+  </si>
+  <si>
+    <t>-1.1055934060845947</t>
+  </si>
+  <si>
+    <t>0.0092294951648663956</t>
+  </si>
+  <si>
+    <t>0.21043820224838358</t>
+  </si>
+  <si>
+    <t>0.031006147107681452</t>
+  </si>
+  <si>
+    <t>62.012090203302677</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -346,11 +493,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +675,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,6 +695,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,9 +779,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,6 +831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -748,11 +1023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,4 +1271,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C88A8F7-FFC9-4AFD-97EB-EBA66D77A997}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>